--- a/xlsx/民事婚姻法案_intext.xlsx
+++ b/xlsx/民事婚姻法案_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>加拿大國會</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_民事婚姻法案</t>
+    <t>加拿大国会</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_民事婚姻法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>加拿大下議院</t>
+    <t>加拿大下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7LGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>加拿大LGBT權益</t>
+    <t>加拿大LGBT权益</t>
   </si>
 </sst>
 </file>
